--- a/Code/Results/Cases/Case_4_117/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_117/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8167190360617553</v>
+        <v>0.3093457149082894</v>
       </c>
       <c r="C2">
-        <v>0.108387463606519</v>
+        <v>0.03562457795956675</v>
       </c>
       <c r="D2">
-        <v>0.1957883735315562</v>
+        <v>0.07819256098835581</v>
       </c>
       <c r="E2">
-        <v>0.3366240380207373</v>
+        <v>0.1566043186524908</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008115470295880778</v>
+        <v>0.002466008856346732</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8294797498062394</v>
+        <v>0.2680515022319412</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.577608653637796</v>
+        <v>0.2262230494872668</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.969860471511367</v>
+        <v>4.035369729367062</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7079679501497367</v>
+        <v>0.2789671693585376</v>
       </c>
       <c r="C3">
-        <v>0.09803798720639634</v>
+        <v>0.03230477108915863</v>
       </c>
       <c r="D3">
-        <v>0.1696757447559207</v>
+        <v>0.07097488807653463</v>
       </c>
       <c r="E3">
-        <v>0.2925853264929401</v>
+        <v>0.1452944042285438</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008164497705948269</v>
+        <v>0.002469085992851357</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7213511273588438</v>
+        <v>0.2369903664306747</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4991559544301722</v>
+        <v>0.2050936524939928</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.828311538631652</v>
+        <v>4.018850526631297</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.641547552016732</v>
+        <v>0.2604118425794013</v>
       </c>
       <c r="C4">
-        <v>0.09167900134169571</v>
+        <v>0.03024915261369188</v>
       </c>
       <c r="D4">
-        <v>0.1538169120317576</v>
+        <v>0.06657856315327138</v>
       </c>
       <c r="E4">
-        <v>0.26607157279863</v>
+        <v>0.138449844219231</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008195522068147332</v>
+        <v>0.002471075522927404</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6552163955233254</v>
+        <v>0.2179566633124352</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4515334145305943</v>
+        <v>0.1922217994308397</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.746651141391254</v>
+        <v>4.010756527435376</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6145527653688134</v>
+        <v>0.252875065509528</v>
       </c>
       <c r="C5">
-        <v>0.08908512382656397</v>
+        <v>0.02940714939460065</v>
       </c>
       <c r="D5">
-        <v>0.147392723388208</v>
+        <v>0.0647958939550648</v>
       </c>
       <c r="E5">
-        <v>0.2553840359442816</v>
+        <v>0.1356854586358409</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008208402349408663</v>
+        <v>0.002471911536106263</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6283143040342054</v>
+        <v>0.2102100237026718</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4322454466569354</v>
+        <v>0.1870018235852058</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.714612089500747</v>
+        <v>4.007972706740162</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6100741845294237</v>
+        <v>0.2516250859922593</v>
       </c>
       <c r="C6">
-        <v>0.08865421892002701</v>
+        <v>0.0292670747887982</v>
       </c>
       <c r="D6">
-        <v>0.146328158632528</v>
+        <v>0.06450041813538121</v>
       </c>
       <c r="E6">
-        <v>0.2536160194191979</v>
+        <v>0.1352279264808374</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008210555628319344</v>
+        <v>0.002472051883485229</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6238496988339506</v>
+        <v>0.2089242949954979</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4290493218762492</v>
+        <v>0.1861365805796282</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.709364504232127</v>
+        <v>4.0075415139749</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6411832204708787</v>
+        <v>0.2603100987868174</v>
       </c>
       <c r="C7">
-        <v>0.09164403151336131</v>
+        <v>0.03023781454533037</v>
       </c>
       <c r="D7">
-        <v>0.1537301246089555</v>
+        <v>0.06655448557083332</v>
       </c>
       <c r="E7">
-        <v>0.2659269825422257</v>
+        <v>0.1384124625630463</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008195694806344744</v>
+        <v>0.002471086695144962</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6548534093953151</v>
+        <v>0.2178521496753518</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4512728344135724</v>
+        <v>0.1921512983408249</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.746214143095955</v>
+        <v>4.010716901345774</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7791379062736894</v>
+        <v>0.29885113618991</v>
       </c>
       <c r="C8">
-        <v>0.1048189669725019</v>
+        <v>0.03448349483669233</v>
       </c>
       <c r="D8">
-        <v>0.1867451521686263</v>
+        <v>0.07569655410294729</v>
       </c>
       <c r="E8">
-        <v>0.3213207474382571</v>
+        <v>0.1526837916720538</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008132187396232576</v>
+        <v>0.002467049112982659</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.792133618646929</v>
+        <v>0.2573338556152862</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5504325537510439</v>
+        <v>0.2189164259123615</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.919913396908612</v>
+        <v>4.029248260209414</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.053293099598847</v>
+        <v>0.375195794096328</v>
       </c>
       <c r="C9">
-        <v>0.1306920738809936</v>
+        <v>0.04267221649608643</v>
       </c>
       <c r="D9">
-        <v>0.2531366647296238</v>
+        <v>0.0939065922106721</v>
       </c>
       <c r="E9">
-        <v>0.4348718747087545</v>
+        <v>0.1814747396847096</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008014673458266486</v>
+        <v>0.002459922529415093</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.064174564896348</v>
+        <v>0.3350536922977199</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7501685629929042</v>
+        <v>0.2722196279748204</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.306196002159226</v>
+        <v>4.0818811031981</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.25818049013813</v>
+        <v>0.4317516054355224</v>
       </c>
       <c r="C10">
-        <v>0.1498342883323573</v>
+        <v>0.04860520482964148</v>
       </c>
       <c r="D10">
-        <v>0.3033197992388921</v>
+        <v>0.1074617912405955</v>
       </c>
       <c r="E10">
-        <v>0.5224406531134065</v>
+        <v>0.2031386717640444</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007932188564922336</v>
+        <v>0.002455163873537943</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.266989621604921</v>
+        <v>0.3923346087650259</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9015639185853601</v>
+        <v>0.3118975162484503</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.623851152695806</v>
+        <v>4.130542758941147</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.352448652029437</v>
+        <v>0.4575814752125211</v>
       </c>
       <c r="C11">
-        <v>0.1585990094376086</v>
+        <v>0.05128629710905841</v>
       </c>
       <c r="D11">
-        <v>0.3265516781565054</v>
+        <v>0.113667639140246</v>
       </c>
       <c r="E11">
-        <v>0.5634601136354576</v>
+        <v>0.2131097200105714</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007895397034007182</v>
+        <v>0.002453101595500599</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.360194211642693</v>
+        <v>0.4184326158104739</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9717991999444067</v>
+        <v>0.3300642113666399</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.777183908863549</v>
+        <v>4.154863443649447</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.388326324906956</v>
+        <v>0.4673771684758492</v>
       </c>
       <c r="C12">
-        <v>0.1619286743375596</v>
+        <v>0.05229898566336999</v>
       </c>
       <c r="D12">
-        <v>0.3354157615959821</v>
+        <v>0.1160233606720169</v>
       </c>
       <c r="E12">
-        <v>0.5791895259246047</v>
+        <v>0.2169025018174722</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007881560883728624</v>
+        <v>0.002452335316736831</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.395651078218009</v>
+        <v>0.4283209893332014</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9986240562041857</v>
+        <v>0.3369605407348075</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.836651809585135</v>
+        <v>4.164388054864105</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.380590941519216</v>
+        <v>0.4652668502839106</v>
       </c>
       <c r="C13">
-        <v>0.161211055291659</v>
+        <v>0.05208100018144535</v>
       </c>
       <c r="D13">
-        <v>0.3335036109743754</v>
+        <v>0.1155157600143895</v>
       </c>
       <c r="E13">
-        <v>0.5757927461118229</v>
+        <v>0.2160848995356588</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007884536630354733</v>
+        <v>0.002452499697736858</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.388007136893094</v>
+        <v>0.4261911044500835</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9928361471023379</v>
+        <v>0.3354745342086076</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.823779611616033</v>
+        <v>4.162322741540322</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.355396549238094</v>
+        <v>0.4583870838869188</v>
       </c>
       <c r="C14">
-        <v>0.1588727143066393</v>
+        <v>0.05136966345871485</v>
       </c>
       <c r="D14">
-        <v>0.3272795429777631</v>
+        <v>0.113861331393565</v>
       </c>
       <c r="E14">
-        <v>0.5647500908691612</v>
+        <v>0.2134214129005159</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000789425685673269</v>
+        <v>0.002453038259943749</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.363107854627287</v>
+        <v>0.4192460267627496</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9740013273582306</v>
+        <v>0.3306312349358791</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.782047414291242</v>
+        <v>4.155640723562612</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.339988600515994</v>
+        <v>0.4541749073872268</v>
       </c>
       <c r="C15">
-        <v>0.1574418785284877</v>
+        <v>0.05093361235304883</v>
       </c>
       <c r="D15">
-        <v>0.32347607502534</v>
+        <v>0.1128486891635845</v>
       </c>
       <c r="E15">
-        <v>0.5580125167048422</v>
+        <v>0.2117921677204748</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007900222994400974</v>
+        <v>0.002453370052022451</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.347878297757006</v>
+        <v>0.4149926922226541</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9624951887979805</v>
+        <v>0.3276667927100192</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.756672295131864</v>
+        <v>4.151588827188874</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.252043536886276</v>
+        <v>0.4300656020182316</v>
       </c>
       <c r="C16">
-        <v>0.1492628434241396</v>
+        <v>0.04842962853845734</v>
       </c>
       <c r="D16">
-        <v>0.3018103821743665</v>
+        <v>0.1070570213293252</v>
       </c>
       <c r="E16">
-        <v>0.5197859216574443</v>
+        <v>0.2024893987017506</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007934606928638163</v>
+        <v>0.002455300703930401</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.260919685894038</v>
+        <v>0.3906298415180629</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8970040085420123</v>
+        <v>0.3107126491750094</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.614019387039548</v>
+        <v>4.128997366338893</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.198383291929531</v>
+        <v>0.4153013694619005</v>
       </c>
       <c r="C17">
-        <v>0.1442615160975151</v>
+        <v>0.04688893155993412</v>
       </c>
       <c r="D17">
-        <v>0.288628425950634</v>
+        <v>0.1035141560527961</v>
       </c>
       <c r="E17">
-        <v>0.4966560727037717</v>
+        <v>0.1968123641559956</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007955881377835476</v>
+        <v>0.002456511286895131</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.207833166607003</v>
+        <v>0.3756942721654468</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8571986769812128</v>
+        <v>0.3003419232528444</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.528859821767497</v>
+        <v>4.115698247161646</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.167617694727596</v>
+        <v>0.4068190207260898</v>
       </c>
       <c r="C18">
-        <v>0.1413900714581331</v>
+        <v>0.04600108381674772</v>
       </c>
       <c r="D18">
-        <v>0.2810839140222896</v>
+        <v>0.1014801123437366</v>
       </c>
       <c r="E18">
-        <v>0.4834621364102318</v>
+        <v>0.1935579873388917</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007968187299691561</v>
+        <v>0.002457217230065597</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.177386226941707</v>
+        <v>0.3671075649137947</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8344300708682653</v>
+        <v>0.2943879607739461</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.480700661164917</v>
+        <v>4.10825448966699</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.157217090060016</v>
+        <v>0.4039487073418115</v>
       </c>
       <c r="C19">
-        <v>0.1404186687697688</v>
+        <v>0.04570018583463309</v>
       </c>
       <c r="D19">
-        <v>0.2785356430123755</v>
+        <v>0.1007920582090236</v>
       </c>
       <c r="E19">
-        <v>0.4790129944722636</v>
+        <v>0.1924579754318643</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000797236606311591</v>
+        <v>0.002457457909657145</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.167091587918549</v>
+        <v>0.3642009191144098</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8267417894447462</v>
+        <v>0.2923739363622673</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.46453214087984</v>
+        <v>4.10576943927353</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.204085146508135</v>
+        <v>0.4168720504736996</v>
       </c>
       <c r="C20">
-        <v>0.1447933619403727</v>
+        <v>0.04705311532933365</v>
       </c>
       <c r="D20">
-        <v>0.2900277363560662</v>
+        <v>0.103890915104401</v>
       </c>
       <c r="E20">
-        <v>0.4991067468587005</v>
+        <v>0.1974155637081338</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007953609555225757</v>
+        <v>0.002456381420017251</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.2134751250139</v>
+        <v>0.3772837934736515</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8614227216510102</v>
+        <v>0.3014447645680249</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.537839156000018</v>
+        <v>4.117092682231402</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.362791627275328</v>
+        <v>0.4604074468655313</v>
       </c>
       <c r="C21">
-        <v>0.1595592315168801</v>
+        <v>0.05157867051808296</v>
       </c>
       <c r="D21">
-        <v>0.3291058201781851</v>
+        <v>0.1143471222941912</v>
       </c>
       <c r="E21">
-        <v>0.5679880405701567</v>
+        <v>0.2142032809078174</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007891399261693832</v>
+        <v>0.002452879673782206</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.370416747153911</v>
+        <v>0.4212858135012709</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9795271042557445</v>
+        <v>0.3320533667153001</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.794265932272083</v>
+        <v>4.157594841628736</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.467581345421308</v>
+        <v>0.4889446509419031</v>
       </c>
       <c r="C22">
-        <v>0.1692730264197735</v>
+        <v>0.05452132042762514</v>
       </c>
       <c r="D22">
-        <v>0.3550388236010207</v>
+        <v>0.1212141001016107</v>
       </c>
       <c r="E22">
-        <v>0.614163754339998</v>
+        <v>0.2252740239236459</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007851295999428848</v>
+        <v>0.002450676503277674</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.473947468178437</v>
+        <v>0.4500763630598499</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.058062915102553</v>
+        <v>0.352157003704221</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.970111461738611</v>
+        <v>4.18590117153127</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.411545863906383</v>
+        <v>0.4737061711063859</v>
       </c>
       <c r="C23">
-        <v>0.1640818985286074</v>
+        <v>0.05295215597658398</v>
       </c>
       <c r="D23">
-        <v>0.3411588447075928</v>
+        <v>0.1175460170261289</v>
       </c>
       <c r="E23">
-        <v>0.5894036811992152</v>
+        <v>0.2193562090041468</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007872652335587138</v>
+        <v>0.002451844584293406</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.418593822689076</v>
+        <v>0.4347073854054599</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.016012137781786</v>
+        <v>0.3414181864194887</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.875456274403518</v>
+        <v>4.170625306470527</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.201507077229337</v>
+        <v>0.4161619274896111</v>
       </c>
       <c r="C24">
-        <v>0.1445529025180292</v>
+        <v>0.04697889432667068</v>
       </c>
       <c r="D24">
-        <v>0.2893950029587273</v>
+        <v>0.1037205736291611</v>
       </c>
       <c r="E24">
-        <v>0.4979984759335281</v>
+        <v>0.1971428278549752</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007954636411774716</v>
+        <v>0.002456440101604827</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.210924169582029</v>
+        <v>0.3765651710309896</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8595126720953488</v>
+        <v>0.3009461441549846</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.533777116534139</v>
+        <v>4.116461628691781</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9786151690124143</v>
+        <v>0.3544607188811995</v>
       </c>
       <c r="C25">
-        <v>0.1236779253550395</v>
+        <v>0.04047159469232042</v>
       </c>
       <c r="D25">
-        <v>0.2349599916959875</v>
+        <v>0.08894963158211056</v>
       </c>
       <c r="E25">
-        <v>0.4035144548557597</v>
+        <v>0.1735977364016037</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008045754613686461</v>
+        <v>0.00246176628814171</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9901570485042441</v>
+        <v>0.313996756537307</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6954289335583397</v>
+        <v>0.2577103892198949</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.196216358510753</v>
+        <v>4.065892092262374</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_117/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_117/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3093457149082894</v>
+        <v>0.8167190360617553</v>
       </c>
       <c r="C2">
-        <v>0.03562457795956675</v>
+        <v>0.10838746360686</v>
       </c>
       <c r="D2">
-        <v>0.07819256098835581</v>
+        <v>0.1957883735313715</v>
       </c>
       <c r="E2">
-        <v>0.1566043186524908</v>
+        <v>0.3366240380207302</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002466008856346732</v>
+        <v>0.000811547029559499</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2680515022319412</v>
+        <v>0.8294797498062962</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2262230494872668</v>
+        <v>0.5776086536378173</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.035369729367062</v>
+        <v>2.969860471511424</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2789671693585376</v>
+        <v>0.7079679501498504</v>
       </c>
       <c r="C3">
-        <v>0.03230477108915863</v>
+        <v>0.09803798720639634</v>
       </c>
       <c r="D3">
-        <v>0.07097488807653463</v>
+        <v>0.1696757447556791</v>
       </c>
       <c r="E3">
-        <v>0.1452944042285438</v>
+        <v>0.2925853264929401</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002469085992851357</v>
+        <v>0.0008164497705935576</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2369903664306747</v>
+        <v>0.7213511273587443</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2050936524939928</v>
+        <v>0.4991559544301865</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.018850526631297</v>
+        <v>2.828311538631624</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2604118425794013</v>
+        <v>0.6415475520164762</v>
       </c>
       <c r="C4">
-        <v>0.03024915261369188</v>
+        <v>0.09167900134136175</v>
       </c>
       <c r="D4">
-        <v>0.06657856315327138</v>
+        <v>0.1538169120316724</v>
       </c>
       <c r="E4">
-        <v>0.138449844219231</v>
+        <v>0.2660715727986656</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002471075522927404</v>
+        <v>0.0008195522068474794</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2179566633124352</v>
+        <v>0.6552163955232828</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1922217994308397</v>
+        <v>0.4515334145306227</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.010756527435376</v>
+        <v>2.746651141391169</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.252875065509528</v>
+        <v>0.6145527653686429</v>
       </c>
       <c r="C5">
-        <v>0.02940714939460065</v>
+        <v>0.08908512382623712</v>
       </c>
       <c r="D5">
-        <v>0.0647958939550648</v>
+        <v>0.1473927233880943</v>
       </c>
       <c r="E5">
-        <v>0.1356854586358409</v>
+        <v>0.2553840359442887</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002471911536106263</v>
+        <v>0.0008208402349703652</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2102100237026718</v>
+        <v>0.6283143040341912</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1870018235852058</v>
+        <v>0.432245446656907</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.007972706740162</v>
+        <v>2.71461208950069</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2516250859922593</v>
+        <v>0.6100741845293953</v>
       </c>
       <c r="C6">
-        <v>0.0292670747887982</v>
+        <v>0.08865421892010517</v>
       </c>
       <c r="D6">
-        <v>0.06450041813538121</v>
+        <v>0.1463281586325706</v>
       </c>
       <c r="E6">
-        <v>0.1352279264808374</v>
+        <v>0.2536160194191979</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002472051883485229</v>
+        <v>0.000821055562829715</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2089242949954979</v>
+        <v>0.6238496988339932</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1861365805796282</v>
+        <v>0.4290493218762279</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.0075415139749</v>
+        <v>2.709364504232184</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2603100987868174</v>
+        <v>0.6411832204709924</v>
       </c>
       <c r="C7">
-        <v>0.03023781454533037</v>
+        <v>0.09164403151324052</v>
       </c>
       <c r="D7">
-        <v>0.06655448557083332</v>
+        <v>0.1537301246091403</v>
       </c>
       <c r="E7">
-        <v>0.1384124625630463</v>
+        <v>0.2659269825422115</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002471086695144962</v>
+        <v>0.0008195694806621715</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2178521496753518</v>
+        <v>0.6548534093952725</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1921512983408249</v>
+        <v>0.4512728344135724</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.010716901345774</v>
+        <v>2.746214143095926</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.29885113618991</v>
+        <v>0.7791379062735473</v>
       </c>
       <c r="C8">
-        <v>0.03448349483669233</v>
+        <v>0.1048189669722746</v>
       </c>
       <c r="D8">
-        <v>0.07569655410294729</v>
+        <v>0.1867451521685553</v>
       </c>
       <c r="E8">
-        <v>0.1526837916720538</v>
+        <v>0.3213207474381932</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002467049112982659</v>
+        <v>0.0008132187396238683</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2573338556152862</v>
+        <v>0.7921336186468153</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2189164259123615</v>
+        <v>0.5504325537510226</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.029248260209414</v>
+        <v>2.919913396908527</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.375195794096328</v>
+        <v>1.053293099598875</v>
       </c>
       <c r="C9">
-        <v>0.04267221649608643</v>
+        <v>0.1306920738811215</v>
       </c>
       <c r="D9">
-        <v>0.0939065922106721</v>
+        <v>0.2531366647293964</v>
       </c>
       <c r="E9">
-        <v>0.1814747396847096</v>
+        <v>0.4348718747087474</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002459922529415093</v>
+        <v>0.0008014673458610782</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3350536922977199</v>
+        <v>1.064174564896405</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2722196279748204</v>
+        <v>0.7501685629928971</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.0818811031981</v>
+        <v>3.306196002159226</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4317516054355224</v>
+        <v>1.258180490138159</v>
       </c>
       <c r="C10">
-        <v>0.04860520482964148</v>
+        <v>0.1498342883322152</v>
       </c>
       <c r="D10">
-        <v>0.1074617912405955</v>
+        <v>0.3033197992389489</v>
       </c>
       <c r="E10">
-        <v>0.2031386717640444</v>
+        <v>0.5224406531134065</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002455163873537943</v>
+        <v>0.000793218856492558</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3923346087650259</v>
+        <v>1.266989621604949</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3118975162484503</v>
+        <v>0.901563918585353</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.130542758941147</v>
+        <v>3.623851152695835</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4575814752125211</v>
+        <v>1.352448652029381</v>
       </c>
       <c r="C11">
-        <v>0.05128629710905841</v>
+        <v>0.1585990094374807</v>
       </c>
       <c r="D11">
-        <v>0.113667639140246</v>
+        <v>0.326551678156477</v>
       </c>
       <c r="E11">
-        <v>0.2131097200105714</v>
+        <v>0.563460113635486</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002453101595500599</v>
+        <v>0.0007895397034271928</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4184326158104739</v>
+        <v>1.360194211642721</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3300642113666399</v>
+        <v>0.971799199944428</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.154863443649447</v>
+        <v>3.777183908863606</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4673771684758492</v>
+        <v>1.388326324906956</v>
       </c>
       <c r="C12">
-        <v>0.05229898566336999</v>
+        <v>0.1619286743372754</v>
       </c>
       <c r="D12">
-        <v>0.1160233606720169</v>
+        <v>0.3354157615960247</v>
       </c>
       <c r="E12">
-        <v>0.2169025018174722</v>
+        <v>0.5791895259245408</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002452335316736831</v>
+        <v>0.000788156088334256</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4283209893332014</v>
+        <v>1.395651078218066</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3369605407348075</v>
+        <v>0.9986240562041715</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.164388054864105</v>
+        <v>3.836651809585135</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4652668502839106</v>
+        <v>1.380590941519387</v>
       </c>
       <c r="C13">
-        <v>0.05208100018144535</v>
+        <v>0.1612110552916306</v>
       </c>
       <c r="D13">
-        <v>0.1155157600143895</v>
+        <v>0.3335036109744038</v>
       </c>
       <c r="E13">
-        <v>0.2160848995356588</v>
+        <v>0.5757927461118442</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002452499697736858</v>
+        <v>0.0007884536630353833</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4261911044500835</v>
+        <v>1.388007136893123</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3354745342086076</v>
+        <v>0.9928361471023308</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.162322741540322</v>
+        <v>3.823779611616033</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4583870838869188</v>
+        <v>1.355396549238009</v>
       </c>
       <c r="C14">
-        <v>0.05136966345871485</v>
+        <v>0.1588727143064972</v>
       </c>
       <c r="D14">
-        <v>0.113861331393565</v>
+        <v>0.3272795429778483</v>
       </c>
       <c r="E14">
-        <v>0.2134214129005159</v>
+        <v>0.5647500908691399</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002453038259943749</v>
+        <v>0.000789425685690272</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4192460267627496</v>
+        <v>1.363107854627401</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3306312349358791</v>
+        <v>0.9740013273582164</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.155640723562612</v>
+        <v>3.782047414291299</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4541749073872268</v>
+        <v>1.339988600516023</v>
       </c>
       <c r="C15">
-        <v>0.05093361235304883</v>
+        <v>0.157441878528374</v>
       </c>
       <c r="D15">
-        <v>0.1128486891635845</v>
+        <v>0.3234760750252264</v>
       </c>
       <c r="E15">
-        <v>0.2117921677204748</v>
+        <v>0.5580125167047925</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002453370052022451</v>
+        <v>0.000790022299346963</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4149926922226541</v>
+        <v>1.347878297757035</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3276667927100192</v>
+        <v>0.9624951887979734</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.151588827188874</v>
+        <v>3.756672295131807</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4300656020182316</v>
+        <v>1.25204353688639</v>
       </c>
       <c r="C16">
-        <v>0.04842962853845734</v>
+        <v>0.149262843424026</v>
       </c>
       <c r="D16">
-        <v>0.1070570213293252</v>
+        <v>0.3018103821743523</v>
       </c>
       <c r="E16">
-        <v>0.2024893987017506</v>
+        <v>0.5197859216574372</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002455300703930401</v>
+        <v>0.0007934606928352053</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3906298415180629</v>
+        <v>1.260919685894038</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3107126491750094</v>
+        <v>0.8970040085420194</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.128997366338893</v>
+        <v>3.614019387039491</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4153013694619005</v>
+        <v>1.198383291929559</v>
       </c>
       <c r="C17">
-        <v>0.04688893155993412</v>
+        <v>0.1442615160976288</v>
       </c>
       <c r="D17">
-        <v>0.1035141560527961</v>
+        <v>0.2886284259506482</v>
       </c>
       <c r="E17">
-        <v>0.1968123641559956</v>
+        <v>0.4966560727037503</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002456511286895131</v>
+        <v>0.000795588137820008</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3756942721654468</v>
+        <v>1.207833166606974</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3003419232528444</v>
+        <v>0.8571986769812057</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.115698247161646</v>
+        <v>3.528859821767497</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4068190207260898</v>
+        <v>1.167617694727625</v>
       </c>
       <c r="C18">
-        <v>0.04600108381674772</v>
+        <v>0.1413900714582468</v>
       </c>
       <c r="D18">
-        <v>0.1014801123437366</v>
+        <v>0.281083914022247</v>
       </c>
       <c r="E18">
-        <v>0.1935579873388917</v>
+        <v>0.4834621364102318</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002457217230065597</v>
+        <v>0.0007968187299332019</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3671075649137947</v>
+        <v>1.177386226941763</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2943879607739461</v>
+        <v>0.8344300708682724</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.10825448966699</v>
+        <v>3.480700661164917</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4039487073418115</v>
+        <v>1.157217090060101</v>
       </c>
       <c r="C19">
-        <v>0.04570018583463309</v>
+        <v>0.1404186687697973</v>
       </c>
       <c r="D19">
-        <v>0.1007920582090236</v>
+        <v>0.2785356430123898</v>
       </c>
       <c r="E19">
-        <v>0.1924579754318643</v>
+        <v>0.4790129944722281</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002457457909657145</v>
+        <v>0.0007972366063196294</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3642009191144098</v>
+        <v>1.167091587918605</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2923739363622673</v>
+        <v>0.8267417894447391</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.10576943927353</v>
+        <v>3.46453214087984</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4168720504736996</v>
+        <v>1.204085146508163</v>
       </c>
       <c r="C20">
-        <v>0.04705311532933365</v>
+        <v>0.1447933619402306</v>
       </c>
       <c r="D20">
-        <v>0.103890915104401</v>
+        <v>0.2900277363560946</v>
       </c>
       <c r="E20">
-        <v>0.1974155637081338</v>
+        <v>0.4991067468587431</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002456381420017251</v>
+        <v>0.000795360955494262</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3772837934736515</v>
+        <v>1.213475125013929</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3014447645680249</v>
+        <v>0.8614227216510102</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.117092682231402</v>
+        <v>3.537839156000018</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4604074468655313</v>
+        <v>1.362791627275385</v>
       </c>
       <c r="C21">
-        <v>0.05157867051808296</v>
+        <v>0.1595592315169938</v>
       </c>
       <c r="D21">
-        <v>0.1143471222941912</v>
+        <v>0.3291058201780288</v>
       </c>
       <c r="E21">
-        <v>0.2142032809078174</v>
+        <v>0.5679880405700999</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002452879673782206</v>
+        <v>0.000789139926206798</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4212858135012709</v>
+        <v>1.370416747153939</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3320533667153001</v>
+        <v>0.9795271042557232</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.157594841628736</v>
+        <v>3.79426593227214</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4889446509419031</v>
+        <v>1.467581345421507</v>
       </c>
       <c r="C22">
-        <v>0.05452132042762514</v>
+        <v>0.1692730264200293</v>
       </c>
       <c r="D22">
-        <v>0.1212141001016107</v>
+        <v>0.3550388236011059</v>
       </c>
       <c r="E22">
-        <v>0.2252740239236459</v>
+        <v>0.6141637543399412</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002450676503277674</v>
+        <v>0.000785129599913482</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4500763630598499</v>
+        <v>1.473947468178437</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.352157003704221</v>
+        <v>1.058062915102553</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.18590117153127</v>
+        <v>3.970111461738611</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4737061711063859</v>
+        <v>1.411545863906525</v>
       </c>
       <c r="C23">
-        <v>0.05295215597658398</v>
+        <v>0.1640818985284653</v>
       </c>
       <c r="D23">
-        <v>0.1175460170261289</v>
+        <v>0.3411588447075928</v>
       </c>
       <c r="E23">
-        <v>0.2193562090041468</v>
+        <v>0.5894036811992152</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002451844584293406</v>
+        <v>0.0007872652335971786</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4347073854054599</v>
+        <v>1.418593822689076</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3414181864194887</v>
+        <v>1.016012137781793</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.170625306470527</v>
+        <v>3.875456274403518</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4161619274896111</v>
+        <v>1.201507077229337</v>
       </c>
       <c r="C24">
-        <v>0.04697889432667068</v>
+        <v>0.1445529025181429</v>
       </c>
       <c r="D24">
-        <v>0.1037205736291611</v>
+        <v>0.2893950029586705</v>
       </c>
       <c r="E24">
-        <v>0.1971428278549752</v>
+        <v>0.4979984759335281</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002456440101604827</v>
+        <v>0.0007954636412498851</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3765651710309896</v>
+        <v>1.210924169581887</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3009461441549846</v>
+        <v>0.8595126720953346</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.116461628691781</v>
+        <v>3.533777116534054</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3544607188811995</v>
+        <v>0.9786151690125848</v>
       </c>
       <c r="C25">
-        <v>0.04047159469232042</v>
+        <v>0.1236779253551816</v>
       </c>
       <c r="D25">
-        <v>0.08894963158211056</v>
+        <v>0.2349599916959875</v>
       </c>
       <c r="E25">
-        <v>0.1735977364016037</v>
+        <v>0.4035144548557454</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.00246176628814171</v>
+        <v>0.0008045754613669734</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.313996756537307</v>
+        <v>0.9901570485042441</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2577103892198949</v>
+        <v>0.6954289335583397</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.065892092262374</v>
+        <v>3.19621635851081</v>
       </c>
     </row>
   </sheetData>
